--- a/Equities.xlsx
+++ b/Equities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Equities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF41804-AE4E-4A95-A5A8-07B182CFDBD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D539C1-61CB-4C71-9F76-DEDDE506C001}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,7 +715,7 @@
         <v>37.515571999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>23.770282999999999</v>
+        <v>33.770282999999999</v>
       </c>
       <c r="H7" s="1">
         <v>15.733529000000001</v>
